--- a/server/excel_controller/hello world.xlsx
+++ b/server/excel_controller/hello world.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="First Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="tenants">'First Sheet'!$A$1:$M$6</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
